--- a/resources/cases.xlsx
+++ b/resources/cases.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10305" activeTab="3"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10305" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="register" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
-    <sheet name="recharge" sheetId="3" r:id="rId3"/>
-    <sheet name="add" sheetId="4" r:id="rId4"/>
-    <sheet name="invest" sheetId="5" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="token" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="invest" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>case_id</t>
   </si>
@@ -194,6 +195,15 @@
     <t>{"code": 2, "msg": "无效的手机格式"}</t>
   </si>
   <si>
+    <t>/token</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>check_sql</t>
   </si>
   <si>
@@ -528,60 +538,57 @@
   </si>
   <si>
     <t>{"member_id":{invest_user_id}, "loan_id":{loan_id},"amount":500}</t>
-  </si>
-  <si>
-    <t>/member/login</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -628,68 +635,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -979,26 +980,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="74" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="18" style="12" customWidth="1"/>
-    <col min="7" max="7" width="19.75" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="12" customWidth="1"/>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="22.625" customWidth="1" min="2" max="2"/>
+    <col width="20.125" customWidth="1" min="3" max="3"/>
+    <col width="74" customWidth="1" min="4" max="4"/>
+    <col width="10.5" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" style="12" min="6" max="6"/>
+    <col width="19.75" customWidth="1" min="7" max="7"/>
+    <col width="18.75" customWidth="1" style="12" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="12.95" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1024,8 +1029,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
+    <row r="2" spans="1:8">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1040,7 +1045,7 @@
       <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="11" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1050,8 +1055,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+    <row r="3" spans="1:8">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
@@ -1066,7 +1071,7 @@
       <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1076,8 +1081,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+    <row r="4" spans="1:8">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -1092,7 +1097,7 @@
       <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="11" t="n">
         <v>2</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1102,8 +1107,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+    <row r="5" spans="1:8">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -1118,7 +1123,7 @@
       <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="11" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1128,8 +1133,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+    <row r="6" spans="1:8">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -1144,7 +1149,7 @@
       <c r="E6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1154,8 +1159,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
+    <row r="7" spans="1:8">
+      <c r="A7" s="11" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -1170,7 +1175,7 @@
       <c r="E7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="11" t="n">
         <v>2</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1180,8 +1185,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+    <row r="8" spans="1:8">
+      <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -1196,7 +1201,7 @@
       <c r="E8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="11" t="n">
         <v>2</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1206,8 +1211,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+    <row r="9" spans="1:8">
+      <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -1222,7 +1227,7 @@
       <c r="E9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="11" t="n">
         <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1232,8 +1237,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
+    <row r="10" spans="1:8">
+      <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -1248,7 +1253,7 @@
       <c r="E10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="11" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -1258,8 +1263,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
+    <row r="11" spans="1:8">
+      <c r="A11" s="11" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -1274,7 +1279,7 @@
       <c r="E11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="11" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1285,33 +1290,36 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="63.625" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="41.125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="35" style="12" customWidth="1"/>
-    <col min="8" max="8" width="20" style="12" customWidth="1"/>
+    <col width="10.25" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="16.875" customWidth="1" min="3" max="3"/>
+    <col width="63.625" customWidth="1" min="4" max="4"/>
+    <col width="10.375" customWidth="1" min="5" max="5"/>
+    <col width="41.125" customWidth="1" style="12" min="6" max="6"/>
+    <col width="35" customWidth="1" style="12" min="7" max="7"/>
+    <col width="20" customWidth="1" style="12" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1337,8 +1345,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14">
+    <row r="2" spans="1:8" ht="17.45" customHeight="1">
+      <c r="A2" s="14" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -1363,8 +1371,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14">
+    <row r="3" spans="1:8" ht="17.45" customHeight="1">
+      <c r="A3" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -1389,8 +1397,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14">
+    <row r="4" spans="1:8" ht="17.45" customHeight="1">
+      <c r="A4" s="14" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -1415,8 +1423,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14">
+    <row r="5" spans="1:8" ht="15.95" customHeight="1">
+      <c r="A5" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
@@ -1441,8 +1449,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14">
+    <row r="6" spans="1:8" ht="17.45" customHeight="1">
+      <c r="A6" s="14" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -1468,41 +1476,120 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <cols>
+    <col width="9.625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="15" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="8.5" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="10.5" bestFit="1" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A2" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="15" t="n"/>
+      <c r="E2" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="16" t="n">
+        <v>200</v>
+      </c>
+      <c r="G2" s="16" t="n">
+        <v>200</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="68.625" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="50.125" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="66.875" customWidth="1"/>
+    <col width="12.375" customWidth="1" min="1" max="1"/>
+    <col width="20.625" customWidth="1" min="2" max="2"/>
+    <col width="19.125" customWidth="1" min="3" max="3"/>
+    <col width="68.625" customWidth="1" min="4" max="4"/>
+    <col width="9.5" customWidth="1" min="5" max="5"/>
+    <col width="13.875" customWidth="1" min="6" max="6"/>
+    <col width="50.125" customWidth="1" min="7" max="7"/>
+    <col width="9.125" customWidth="1" style="1" min="8" max="8"/>
+    <col width="66.875" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="14.1" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1528,41 +1615,41 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.95" customHeight="1">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="11" t="n">
         <v>1003</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
+      <c r="I2" s="6" t="n"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1572,423 +1659,426 @@
         <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="11" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3">
+      <c r="I3" s="6" t="n"/>
+      <c r="J3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
+    <row r="4" spans="1:10" ht="12.95" customHeight="1">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="3"/>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="3" t="n"/>
       <c r="I4" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="3" t="n"/>
       <c r="I5" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="11">
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="4" t="n"/>
+      <c r="H7" s="3" t="n"/>
       <c r="I7" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="11" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+      <c r="I8" s="4" t="n"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="11" t="n">
         <v>1001</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
+      <c r="I9" s="4" t="n"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="11" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
+      <c r="I10" s="4" t="n"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="11" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
+      <c r="I11" s="4" t="n"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="11" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="11" t="n">
         <v>2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
+      <c r="I12" s="4" t="n"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="11" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="11" t="n">
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
+      <c r="I13" s="4" t="n"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="11" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="11" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
+      <c r="I14" s="4" t="n"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="11" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="11" t="n">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
+      <c r="I15" s="4" t="n"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="11" t="n">
         <v>2</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
+      <c r="I16" s="4" t="n"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="11" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="11" t="n">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="4" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="109.125" customWidth="1"/>
-    <col min="5" max="5" width="9.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="69.5" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="1" customWidth="1"/>
+    <col width="8.875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="21.125" customWidth="1" min="2" max="2"/>
+    <col width="14.75" customWidth="1" min="3" max="3"/>
+    <col width="109.125" customWidth="1" min="4" max="4"/>
+    <col width="9.25" customWidth="1" style="1" min="5" max="5"/>
+    <col width="17.625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="69.5" customWidth="1" min="7" max="7"/>
+    <col width="8.875" customWidth="1" style="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2014,49 +2104,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:8" ht="30.95" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="3" t="n">
         <v>1003</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+    <row r="3" spans="1:8" ht="27.95" customHeight="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -2066,398 +2156,401 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+    <row r="4" spans="1:8" ht="30.95" customHeight="1">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+    <row r="5" spans="1:8" ht="33.95" customHeight="1">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+    <row r="6" spans="1:8" ht="28.9" customHeight="1">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+    <row r="7" spans="1:8" ht="28.9" customHeight="1">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+    <row r="8" spans="1:8" ht="28.9" customHeight="1">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+    <row r="9" spans="1:8" ht="28.9" customHeight="1">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+    <row r="10" spans="1:8" ht="28.9" customHeight="1">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="n">
         <v>2</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+    <row r="11" spans="1:8" ht="28.9" customHeight="1">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+    <row r="12" spans="1:8" ht="28.9" customHeight="1">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+    <row r="13" spans="1:8" ht="28.9" customHeight="1">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="3" t="n">
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+    <row r="14" spans="1:8" ht="28.9" customHeight="1">
+      <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="n">
         <v>2</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+    <row r="15" spans="1:8" ht="28.9" customHeight="1">
+      <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="n">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+    <row r="16" spans="1:8" ht="28.9" customHeight="1">
+      <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="3" t="n">
         <v>2</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+    <row r="17" spans="1:8" ht="28.9" customHeight="1">
+      <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="n">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="99.625" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.875" customWidth="1"/>
-    <col min="8" max="8" width="8.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="115.5" customWidth="1"/>
+    <col width="8.875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="43.5" customWidth="1" min="2" max="2"/>
+    <col width="17.5" customWidth="1" min="3" max="3"/>
+    <col width="99.625" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" style="1" min="5" max="5"/>
+    <col width="8.875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="42.875" customWidth="1" min="7" max="7"/>
+    <col width="8.875" customWidth="1" style="1" min="8" max="8"/>
+    <col width="115.5" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2483,26 +2576,26 @@
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -2511,54 +2604,54 @@
       <c r="H2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="I2" s="8" t="n"/>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2567,37 +2660,37 @@
       <c r="H4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="I4" s="8" t="n"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="3">
+        <v>142</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="8" t="n"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>40</v>
@@ -2608,322 +2701,321 @@
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="I6" s="8" t="n"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.1" customHeight="1">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="G7" s="4" t="n"/>
+      <c r="H7" s="5" t="n"/>
+      <c r="I7" s="8" t="n"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.1" customHeight="1">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="9" t="n"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.1" customHeight="1">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="D9" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="I9" s="9" t="n"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.1" customHeight="1">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="5" t="n"/>
+      <c r="I10" s="9" t="n"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.1" customHeight="1">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="F11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="n"/>
+      <c r="H11" s="5" t="n"/>
+      <c r="I11" s="9" t="n"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.1" customHeight="1">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="F12" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4" t="n"/>
+      <c r="H12" s="5" t="n"/>
+      <c r="I12" s="9" t="n"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.1" customHeight="1">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="F13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4" t="n"/>
+      <c r="H13" s="5" t="n"/>
+      <c r="I13" s="9" t="n"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.1" customHeight="1">
+      <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="F14" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="n"/>
+      <c r="H14" s="5" t="n"/>
+      <c r="I14" s="9" t="n"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.1" customHeight="1">
+      <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="F15" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4" t="n"/>
+      <c r="H15" s="5" t="n"/>
+      <c r="I15" s="10" t="n"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.1" customHeight="1">
+      <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="3">
-        <v>2</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="F16" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4" t="n"/>
+      <c r="H16" s="5" t="n"/>
+      <c r="I16" s="10" t="n"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.1" customHeight="1">
+      <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="3">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="F17" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4" t="n"/>
+      <c r="H17" s="5" t="n"/>
+      <c r="I17" s="10" t="n"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.1" customHeight="1">
+      <c r="A18" s="3" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
+      <c r="F18" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4" t="n"/>
+      <c r="H18" s="5" t="n"/>
+      <c r="I18" s="10" t="n"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.1" customHeight="1">
+      <c r="A19" s="3" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="3">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="10"/>
+      <c r="F19" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4" t="n"/>
+      <c r="H19" s="5" t="n"/>
+      <c r="I19" s="10" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>